--- a/biology/Histoire de la zoologie et de la botanique/Jardin_botanique_d'Odessa/Jardin_botanique_d'Odessa.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jardin_botanique_d'Odessa/Jardin_botanique_d'Odessa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_d%27Odessa</t>
+          <t>Jardin_botanique_d'Odessa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le jardin botanique d'Odessa est un établissement public ukrainien, comportant en deux parties: un jardin botanique, un arboretum et un conservatoire (serre chauffée) situées aux n°48-50 ainsi qu'au n°87 du Boulevard des français (Французький бульвар)[2], au centre-ville d'Odessa, la troisième plus grande ville du pays.
+Le jardin botanique d'Odessa est un établissement public ukrainien, comportant en deux parties: un jardin botanique, un arboretum et un conservatoire (serre chauffée) situées aux n°48-50 ainsi qu'au n°87 du Boulevard des français (Французький бульвар), au centre-ville d'Odessa, la troisième plus grande ville du pays.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_d%27Odessa</t>
+          <t>Jardin_botanique_d'Odessa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa construction remonte au gouvernorat d'Alexandre Louis Andrault de Langeron[3], mais il fallut attendre 1867 pour qu'il soit officialisé sous l'égide de l'université Impériale Novorossiysk (aujourd'hui l'Université d'Odessa portant le nom de Ilya Ilitch Metchnikov)[2]. Ce jardin botanique est l'un des plus anciens parcs de la ville.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa construction remonte au gouvernorat d'Alexandre Louis Andrault de Langeron, mais il fallut attendre 1867 pour qu'il soit officialisé sous l'égide de l'université Impériale Novorossiysk (aujourd'hui l'Université d'Odessa portant le nom de Ilya Ilitch Metchnikov). Ce jardin botanique est l'un des plus anciens parcs de la ville.
 C'est son fondateur Alexandre de Langeron qui y planta le premier arbre de la ville, puis Félix de Ribas qui présenta à la ville son parc; le personnel universitaire contribue de nos jours au maintien d'un jardin d'étude et d'agrément, unique sur les bords de la mer Noire et au climat quasi-méditerranéen.
 Ses collections étaient principalement connues comme une sorte d'étude pour le département de botanique de l'université d'Odessa.
-Sous la direction du professeur L.V. Reingard, professeur de botanique, et de  L.A. Rishavi, expert en anatomie et en physiologie des plantes, des plantes et graines ont été rapportées de différentes parties du monde, notamment de Paris, de Singapour, de Melbourne, de Saïgon, de Berlin et de Palerme[2].
+Sous la direction du professeur L.V. Reingard, professeur de botanique, et de  L.A. Rishavi, expert en anatomie et en physiologie des plantes, des plantes et graines ont été rapportées de différentes parties du monde, notamment de Paris, de Singapour, de Melbourne, de Saïgon, de Berlin et de Palerme.
 L'histoire du Jardin botanique connaît, comme la ville, des périodes néfastes. Le parc (originellement une œuvre d'Empire) fut gravement endommagé pendant la révolution russe et la guerre civile qui s'en suivi.
 Durant la Seconde Guerre mondiale, de nombreuses collections de plantes ont été détruites.
 </t>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_d%27Odessa</t>
+          <t>Jardin_botanique_d'Odessa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui, on peut y voir plus de 3 000 sortes de plantations vertes d'âges différents. La collection du parc est renouvelée en permanence.
-Le parc s'étend sur 16 hectares, sur laquelle se trouvent une ancienne collection (au bout du Boulevard Français) et une nouvelle collection[2].
+Le parc s'étend sur 16 hectares, sur laquelle se trouvent une ancienne collection (au bout du Boulevard Français) et une nouvelle collection.
 Le Jardin botanique de l'université nationale d'Odessa est l'un des membres du Conseil des jardins botaniques d'Ukraine.
 Le Jardin participe à de nombreux programmes éducatifs organisés par le Conseil international des jardins botaniques pour la protection des plantes.
 L'université échange périodiquement des semences avec plus de 200 institutions botaniques dans le monde entier, enrichissant ainsi sa collection.
